--- a/Hazard Assessment.xlsx
+++ b/Hazard Assessment.xlsx
@@ -7,16 +7,884 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hazard Assessment" sheetId="1" r:id="rId1"/>
-    <sheet name="Precautions" sheetId="2" r:id="rId2"/>
-    <sheet name="PPE" sheetId="3" r:id="rId3"/>
+    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="Hazards" sheetId="2" r:id="rId2"/>
+    <sheet name="Precautions" sheetId="3" r:id="rId3"/>
+    <sheet name="PPE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="533">
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Hazards</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Precautions</t>
+  </si>
+  <si>
+    <t>ProductNumber</t>
+  </si>
+  <si>
+    <t>ProductURL</t>
+  </si>
+  <si>
+    <t>SDSfile</t>
+  </si>
+  <si>
+    <t>SearchURL</t>
+  </si>
+  <si>
+    <t>Supp. Hazards</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Product Number</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>SIAL</t>
+  </si>
+  <si>
+    <t>ALDRICH</t>
+  </si>
+  <si>
+    <t>110-71-4</t>
+  </si>
+  <si>
+    <t>646-06-0</t>
+  </si>
+  <si>
+    <t>1120-71-4</t>
+  </si>
+  <si>
+    <t>872-50-4</t>
+  </si>
+  <si>
+    <t>4427-96-7</t>
+  </si>
+  <si>
+    <t>90076-65-6</t>
+  </si>
+  <si>
+    <t>105-58-8</t>
+  </si>
+  <si>
+    <t>616-38-6</t>
+  </si>
+  <si>
+    <t>623-53-0</t>
+  </si>
+  <si>
+    <t>96-49-1</t>
+  </si>
+  <si>
+    <t>7782-42-5</t>
+  </si>
+  <si>
+    <t>7439-93-2</t>
+  </si>
+  <si>
+    <t>244761-29-3</t>
+  </si>
+  <si>
+    <t>12190-79-3</t>
+  </si>
+  <si>
+    <t>21324-40-3</t>
+  </si>
+  <si>
+    <t>15365-14-7</t>
+  </si>
+  <si>
+    <t>12057-17-9</t>
+  </si>
+  <si>
+    <t>193214-24-3</t>
+  </si>
+  <si>
+    <t>12031-65-1</t>
+  </si>
+  <si>
+    <t>7791-03-9</t>
+  </si>
+  <si>
+    <t>12031-95-7</t>
+  </si>
+  <si>
+    <t>108-32-7</t>
+  </si>
+  <si>
+    <t>872-36-6</t>
+  </si>
+  <si>
+    <t>CH3OCH2CH2OCH3</t>
+  </si>
+  <si>
+    <t>C3H6O2</t>
+  </si>
+  <si>
+    <t>C3H6O3S</t>
+  </si>
+  <si>
+    <t>C5H9NO</t>
+  </si>
+  <si>
+    <t>C5H6O3</t>
+  </si>
+  <si>
+    <t>CF3SO2NLiSO2CF3</t>
+  </si>
+  <si>
+    <t>(C2H5O)2CO</t>
+  </si>
+  <si>
+    <t>(CH3O)2CO</t>
+  </si>
+  <si>
+    <t>C4H8O3</t>
+  </si>
+  <si>
+    <t>C3H4O3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>LiB(C2O4)2</t>
+  </si>
+  <si>
+    <t>LiCoO2</t>
+  </si>
+  <si>
+    <t>LiPF6</t>
+  </si>
+  <si>
+    <t>LiFePO4</t>
+  </si>
+  <si>
+    <t>LiMn2O4</t>
+  </si>
+  <si>
+    <t>LiNi0.8Co0.15Al0.05O2</t>
+  </si>
+  <si>
+    <t>LiNiO2</t>
+  </si>
+  <si>
+    <t>LiClO4</t>
+  </si>
+  <si>
+    <t>Li4Ti5O12</t>
+  </si>
+  <si>
+    <t>C4H6O3</t>
+  </si>
+  <si>
+    <t>C3H2O3</t>
+  </si>
+  <si>
+    <t>{'H225': 'Highly Flammable liquid and vapor.', 'H360FD': 'May damage fertility. May damage the unborn child.', 'H315': 'Causes skin irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H225': 'Highly Flammable liquid and vapor.', 'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H350': 'May cause cancer.', 'H312': 'Harmful in contact with skin.', 'H302': 'Harmful if swallowed.', 'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H335': 'May cause respiratory irritation.', 'H360D': 'May damage the unborn child.', 'H315': 'Causes skin irritation.', 'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H301': 'Toxic if swallowed.', 'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H314': 'Causes severe skin burns and eye damage.', 'H412': 'Harmful to aquatic life with long lasting effects.', 'H301': 'Toxic if swallowed.', 'H373': 'Causes damage to organs through prolonged or repeated exposure.', 'H311': 'Toxic in contact with skin'}</t>
+  </si>
+  <si>
+    <t>{'H335': 'May cause respiratory irritation.', 'H315': 'Causes skin irritation.', 'H226': 'Flammable liquid and vapor.', 'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H225': 'Highly Flammable liquid and vapor.'}</t>
+  </si>
+  <si>
+    <t>{'H302': 'Harmful if swallowed.', 'H319': 'Causes serious eye irritation.', 'H373': 'Causes damage to organs through prolonged or repeated exposure.'}</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>{'H314': 'Causes severe skin burns and eye damage.', 'H260': 'In contact with water releases flammable gases which may ignite spontaneously.'}</t>
+  </si>
+  <si>
+    <t>{'H335': 'May cause respiratory irritation.', 'H315': 'Causes skin irritation.', 'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H317': 'May cause an allergic skin reaction.', 'H350': 'May cause cancer.'}</t>
+  </si>
+  <si>
+    <t>{'H314': 'Causes severe skin burns and eye damage.', 'H301': 'Toxic if swallowed.', 'H372': 'Causes damage to organs through prolonged or repeated exposure.'}</t>
+  </si>
+  <si>
+    <t>{'H317': 'May cause an allergic skin reaction.', 'H351': 'Suspected of causing cancer.'}</t>
+  </si>
+  <si>
+    <t>{'H317': 'May cause an allergic skin reaction.', 'H350i': 'May cause cancer by inhalation.', 'H372': 'Causes damage to organs through prolonged or repeated exposure.'}</t>
+  </si>
+  <si>
+    <t>{'H272': 'May intensify fire; oxidizer.', 'H335': 'May cause respiratory irritation.', 'H315': 'Causes skin irritation.', 'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H335': 'May cause respiratory irritation.', 'H302': 'Harmful if swallowed.', 'H315': 'Causes skin irritation.', 'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H319': 'Causes serious eye irritation.'}</t>
+  </si>
+  <si>
+    <t>{'H318': 'Causes serious eye damage.', 'H411': 'Toxic to aquatic life with long lasting effects.', 'H373': 'Causes damage to organs through prolonged or repeated exposure.', 'H317': 'May cause an allergic skin reaction.', 'H302': 'Harmful if swallowed.', 'H315': 'Causes skin irritation.', 'H311': 'Toxic in contact with skin'}</t>
+  </si>
+  <si>
+    <t>1,2-Dimethoxyethane</t>
+  </si>
+  <si>
+    <t>1,3-Dioxolane</t>
+  </si>
+  <si>
+    <t>1,3-Propanesultone</t>
+  </si>
+  <si>
+    <t>1-Methyl-2-pyrrolidinone</t>
+  </si>
+  <si>
+    <t>4-Vinyl-1,3-dioxolan-2-one</t>
+  </si>
+  <si>
+    <t>Bis(trifluoromethane)sulfonimide lithium salt</t>
+  </si>
+  <si>
+    <t>Diethyl carbonate</t>
+  </si>
+  <si>
+    <t>Dimethyl carbonate</t>
+  </si>
+  <si>
+    <t>Ethyl methyl carbonate</t>
+  </si>
+  <si>
+    <t>Ethylene carbonate</t>
+  </si>
+  <si>
+    <t>Graphite</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Lithium bis(oxalato)borate</t>
+  </si>
+  <si>
+    <t>Lithium cobalt(III) oxide</t>
+  </si>
+  <si>
+    <t>Lithium hexafluorophosphate</t>
+  </si>
+  <si>
+    <t>Lithium iron(II) phosphate</t>
+  </si>
+  <si>
+    <t>Lithium manganese oxide</t>
+  </si>
+  <si>
+    <t>Lithium nickel cobalt aluminium oxide</t>
+  </si>
+  <si>
+    <t>Lithium nickel dioxide</t>
+  </si>
+  <si>
+    <t>Lithium perchlorate</t>
+  </si>
+  <si>
+    <t>Lithium titanate, spinel</t>
+  </si>
+  <si>
+    <t>Propylene carbonate</t>
+  </si>
+  <si>
+    <t>Vinylene carbonate</t>
+  </si>
+  <si>
+    <t>['Eyeshields', 'Faceshields', 'Full-face respirator (US)', 'Gloves', 'Multi-purpose combination respirator cartridge (US)', 'Type ABEK (EN14387) respirator filter']</t>
+  </si>
+  <si>
+    <t>['Eyeshields', 'Faceshields', 'Full-face respirator (US)', 'Gloves', 'Multi-purpose combination respirator cartridge (US)']</t>
+  </si>
+  <si>
+    <t>['Eyeshields', 'Faceshields', 'Full-face particle respirator type N100 (US)', 'Gloves', 'Respirator cartridge type N100 (US)', 'Type P1 (EN143) respirator filter', 'Type P3 (EN 143) respirator cartridges']</t>
+  </si>
+  <si>
+    <t>['Eyeshields', 'Full-face respirator (US)', 'Gloves', 'Multi-purpose combination respirator cartridge (US)', 'Type ABEK (EN14387) respirator filter']</t>
+  </si>
+  <si>
+    <t>['Dust mask type N95 (US)', 'Eyeshields', 'Gloves']</t>
+  </si>
+  <si>
+    <t>['Dust mask type N95 (US)', 'Eyeshields', 'Faceshields', 'Gloves']</t>
+  </si>
+  <si>
+    <t>['Eyeshields', 'Full-face particle respirator type N100 (US)', 'Gloves', 'Respirator cartridge type N100 (US)', 'Type P1 (EN143) respirator filter', 'Type P3 (EN 143) respirator cartridges']</t>
+  </si>
+  <si>
+    <t>['Eyeshields', 'Gloves', 'Type N95 (US)', 'Type P1 (EN143) respirator filter']</t>
+  </si>
+  <si>
+    <t>{'P210': 'Keep away from heat/sparks/open flames/hot surfaces. No smoking.', 'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.', 'P308+P313': 'IF exposed or concerned: Get medical advice/attention.', 'P201': 'Obtain special instructions before use.', 'P403+P235': 'Store in a well-ventilated place. Keep cool.', 'P370+P378': 'In case of fire: Use ... for extinction.'}</t>
+  </si>
+  <si>
+    <t>{'P210': 'Keep away from heat/sparks/open flames/hot surfaces. No smoking.', 'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P370+P378': 'In case of fire: Use ... for extinction.', 'P403+P235': 'Store in a well-ventilated place. Keep cool.'}</t>
+  </si>
+  <si>
+    <t>{'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.', 'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P308+P313': 'IF exposed or concerned: Get medical advice/attention.', 'P201': 'Obtain special instructions before use.', 'P301+P312+P330': 'IF SWALLOWED: Call a POISON CENTER or doctor/physician if you feel unwell. Rinse mouth.'}</t>
+  </si>
+  <si>
+    <t>{'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.', 'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P308+P313': 'IF exposed or concerned: Get medical advice/attention.', 'P201': 'Obtain special instructions before use.'}</t>
+  </si>
+  <si>
+    <t>{'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P301+P310': 'IF SWALLOWED: Immediately call a POISON CENTER or doctor/physician.'}</t>
+  </si>
+  <si>
+    <t>{'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.', 'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P310': 'Immediately call a POISON CENTER or doctor/physician.', 'P301+P310': 'IF SWALLOWED: Immediately call a POISON CENTER or doctor/physician.', 'P273': 'Avoid release to the environment.'}</t>
+  </si>
+  <si>
+    <t>{'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P261': 'Avoid breathing dust/fume/gas/mist/vapors/spray.'}</t>
+  </si>
+  <si>
+    <t>{'P210': 'Keep away from heat/sparks/open flames/hot surfaces. No smoking.', 'P403+P235': 'Store in a well-ventilated place. Keep cool.'}</t>
+  </si>
+  <si>
+    <t>{'P260': 'Do not breathe dust/fume/gas/mist/vapors/spray.', 'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P301+P312+P330': 'IF SWALLOWED: Call a POISON CENTER or doctor/physician if you feel unwell. Rinse mouth.'}</t>
+  </si>
+  <si>
+    <t>{'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.', 'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P422': 'Store contents under ...', 'P223': 'Keep away from any possible contact with water, because of violent reaction and possible flash fire.', 'P231+P232': 'Handle under inert gas. Protect from moisture.', 'P370+P378': 'In case of fire: Use ... for extinction.'}</t>
+  </si>
+  <si>
+    <t>{'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.', 'P308+P313': 'IF exposed or concerned: Get medical advice/attention.', 'P201': 'Obtain special instructions before use.'}</t>
+  </si>
+  <si>
+    <t>{'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.', 'P260': 'Do not breathe dust/fume/gas/mist/vapors/spray.', 'P303+P361+P353': 'IF ON SKIN (or hair): Remove/Take off immediately all contaminated clothing. Rinse skin with water/shower.', 'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P304+P340+P310': 'IF INHALED: Remove victim to fresh air and keep at rest in a position comfortable for breathing. Immediately call a POISON CENTER or doctor/physician.'}</t>
+  </si>
+  <si>
+    <t>{'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.'}</t>
+  </si>
+  <si>
+    <t>{'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P220': 'Keep/Store away from clothing/.../combustible materials.', 'P261': 'Avoid breathing dust/fume/gas/mist/vapors/spray.'}</t>
+  </si>
+  <si>
+    <t>{'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.'}</t>
+  </si>
+  <si>
+    <t>{'P280': 'Wear protective gloves/protective clothing/eye protection/face protection.', 'P305+P351+P338': 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'P312': 'Call a POISON CENTER or doctor/physician if you feel unwell.', 'P273': 'Avoid release to the environment.'}</t>
+  </si>
+  <si>
+    <t>259527</t>
+  </si>
+  <si>
+    <t>184497</t>
+  </si>
+  <si>
+    <t>P50706</t>
+  </si>
+  <si>
+    <t>328634</t>
+  </si>
+  <si>
+    <t>496820</t>
+  </si>
+  <si>
+    <t>544094</t>
+  </si>
+  <si>
+    <t>517135</t>
+  </si>
+  <si>
+    <t>517127</t>
+  </si>
+  <si>
+    <t>752002</t>
+  </si>
+  <si>
+    <t>E26258</t>
+  </si>
+  <si>
+    <t>332461</t>
+  </si>
+  <si>
+    <t>499811</t>
+  </si>
+  <si>
+    <t>757136</t>
+  </si>
+  <si>
+    <t>442704</t>
+  </si>
+  <si>
+    <t>450227</t>
+  </si>
+  <si>
+    <t>759546</t>
+  </si>
+  <si>
+    <t>725129</t>
+  </si>
+  <si>
+    <t>760994</t>
+  </si>
+  <si>
+    <t>757365</t>
+  </si>
+  <si>
+    <t>431567</t>
+  </si>
+  <si>
+    <t>702277</t>
+  </si>
+  <si>
+    <t>310328</t>
+  </si>
+  <si>
+    <t>V2607</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/sial/259527</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/sial/184497</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/p50706</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/sial/328634</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/496820</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/544094</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/517135</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/sial/517127</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/752002</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/e26258</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/332461</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/499811</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/757136</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/442704</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/450227</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/759546</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/725129</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/760994</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/757365</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/431567</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/702277</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/sial/310328</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/product/aldrich/v2607</t>
+  </si>
+  <si>
+    <t>SDS\1,2-Dimethoxyethane - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\1,3-Dioxolane - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\1,3-Propanesultone - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\1-Methyl-2-pyrrolidinone - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\4-Vinyl-1,3-dioxolan-2-one - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Bis(trifluoromethane)sulfonimide lithium salt - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Diethyl carbonate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Dimethyl carbonate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Ethyl methyl carbonate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Ethylene carbonate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Graphite - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium bis(oxalato)borate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium cobalt(III) oxide - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium hexafluorophosphate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium iron(II) phosphate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium manganese oxide - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium nickel cobalt aluminium oxide - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium nickel dioxide - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium perchlorate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Lithium titanate, spinel - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Propylene carbonate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>SDS\Vinylene carbonate - SDS.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=110-71-4&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=646-06-0&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=1120-71-4&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=872-50-4&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=4427-96-7&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=90076-65-6&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=105-58-8&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=616-38-6&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=623-53-0&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=96-49-1&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=7782-42-5&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=7439-93-2&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=244761-29-3&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=12190-79-3&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=21324-40-3&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=15365-14-7&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=12057-17-9&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=193214-24-3&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=12031-65-1&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=7791-03-9&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=12031-95-7&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=108-32-7&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>http://www.sigmaaldrich.com/catalog/search?interface=CAS%20No.&amp;term=872-36-6&amp;N=0&amp;lang=en&amp;region=US&amp;focus=product&amp;mode=mode+matchall</t>
+  </si>
+  <si>
+    <t>['May form explosive peroxides.']</t>
+  </si>
+  <si>
+    <t>['Reacts violently with water.']</t>
+  </si>
+  <si>
+    <t>['Dimethylglycol', 'Ethylene glycol dimethyl ether', 'Monoglyme', 'mono-Glyme']</t>
+  </si>
+  <si>
+    <t>['Ethylene glycol methylene ether', 'Formaldehyde ethylene acetal']</t>
+  </si>
+  <si>
+    <t>['3-Hydroxypropanesulfonic acid -sultone']</t>
+  </si>
+  <si>
+    <t>['1-Methyl-2-pyrrolidone', 'N-Methyl-2-pyrrolidone', 'NMP']</t>
+  </si>
+  <si>
+    <t>['VEC', 'Vinyl ethylene carbonate']</t>
+  </si>
+  <si>
+    <t>['Bis(trifluoromethylsulfonyl)amine lithium salt', 'Lithium bistrifluoromethanesulfonimidate']</t>
+  </si>
+  <si>
+    <t>['Carbonic acid dimethyl ester', 'DMC']</t>
+  </si>
+  <si>
+    <t>['Carbonic acid ethyl methyl ester', 'EMC', 'Methyl ethyl carbonate']</t>
+  </si>
+  <si>
+    <t>['1', '3-Dioxolan-2-one']</t>
+  </si>
+  <si>
+    <t>['Lithium bis(oxalate)borate', 'LiBOB', 'Lithium bis(ethanedioato)borate']</t>
+  </si>
+  <si>
+    <t>['Lithium cobaltite']</t>
+  </si>
+  <si>
+    <t>['Lithium phosphorus fluoride']</t>
+  </si>
+  <si>
+    <t>['Ferrous lithium phosphate', 'Iron lithium phosphate', 'LFP', 'Triphylite']</t>
+  </si>
+  <si>
+    <t>['LMO', 'Lithium manganese(III', 'IV) oxide']</t>
+  </si>
+  <si>
+    <t>['NCA']</t>
+  </si>
+  <si>
+    <t>['LNO', 'Lithium nickel oxide', 'Lithium nickelate']</t>
+  </si>
+  <si>
+    <t>['LTO nanopowder', 'Lithium titanate spinel oxide', 'Lithium titanium oxide']</t>
+  </si>
+  <si>
+    <t>['1', '2-Propanediol cyclic carbonate', '4-Methyl-1', '3-dioxolan-2-one']</t>
+  </si>
+  <si>
+    <t>['1', '3-Dioxol-2-one', 'VC']</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/sial/259527"&gt;259527&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/sial/184497"&gt;184497&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/p50706"&gt;P50706&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/sial/328634"&gt;328634&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/496820"&gt;496820&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/544094"&gt;544094&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/517135"&gt;517135&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/sial/517127"&gt;517127&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/752002"&gt;752002&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/e26258"&gt;E26258&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/332461"&gt;332461&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/499811"&gt;499811&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/757136"&gt;757136&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/442704"&gt;442704&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/450227"&gt;450227&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/759546"&gt;759546&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/725129"&gt;725129&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/760994"&gt;760994&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/757365"&gt;757365&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/431567"&gt;431567&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/702277"&gt;702277&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/sial/310328"&gt;310328&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.sigmaaldrich.com/catalog/product/aldrich/v2607"&gt;V2607&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\1,2-Dimethoxyethane - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\1,3-Dioxolane - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\1,3-Propanesultone - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\1-Methyl-2-pyrrolidinone - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\4-Vinyl-1,3-dioxolan-2-one - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Bis(trifluoromethane)sulfonimide lithium salt - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Diethyl carbonate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Dimethyl carbonate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Ethyl methyl carbonate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Ethylene carbonate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Graphite - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium bis(oxalato)borate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium cobalt(III) oxide - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium hexafluorophosphate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium iron(II) phosphate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium manganese oxide - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium nickel cobalt aluminium oxide - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium nickel dioxide - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium perchlorate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Lithium titanate, spinel - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Propylene carbonate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="SDS\Vinylene carbonate - SDS.pdf"&gt;SDS&lt;/a&gt;</t>
+  </si>
   <si>
     <t>Assoc.CAS</t>
   </si>
@@ -180,61 +1048,58 @@
     <t>['Bis(trifluoromethane)sulfonimide lithium salt']</t>
   </si>
   <si>
-    <t>{'P280', 'P370+P378', 'P240', 'P233', 'P303+P361+P353', 'P242', 'P501', 'P210', 'P241', 'P403+P235', 'P243'}</t>
-  </si>
-  <si>
-    <t>{'P280', 'P370+P378', 'P231+P232', 'P335+P334', 'P501', 'P402+P404', 'P223'}</t>
-  </si>
-  <si>
-    <t>{'P370+P378', 'P280', 'P220', 'P501', 'P210', 'P221'}</t>
-  </si>
-  <si>
-    <t>{'P330', 'P301+P310', 'P321', 'P270', 'P405', 'P501', 'P264'}</t>
-  </si>
-  <si>
-    <t>{'P264', 'P270', 'P501', 'P330', 'P301+P312'}</t>
-  </si>
-  <si>
-    <t>{'P280', 'P302+P352', 'P405', 'P501', 'P312', 'P361', 'P363', 'P322'}</t>
-  </si>
-  <si>
-    <t>{'P280', 'P302+P352', 'P501', 'P312', 'P363', 'P322'}</t>
-  </si>
-  <si>
-    <t>{'P301+P330+P331', 'P280', 'P304+P340', 'P303+P361+P353', 'P321', 'P305+P351+P338', 'P405', 'P501', 'P264', 'P363', 'P260', 'P310'}</t>
-  </si>
-  <si>
-    <t>{'P280', 'P332+P313', 'P302+P352', 'P321', 'P264', 'P362'}</t>
-  </si>
-  <si>
-    <t>{'P280', 'P261', 'P333+P313', 'P302+P352', 'P321', 'P272', 'P501', 'P363'}</t>
+    <t>{'P280', 'P240', 'P501', 'P370+P378', 'P233', 'P241', 'P210', 'P303+P361+P353', 'P243', 'P403+P235', 'P242'}</t>
+  </si>
+  <si>
+    <t>{'P280', 'P335+P334', 'P501', 'P370+P378', 'P402+P404', 'P223', 'P231+P232'}</t>
+  </si>
+  <si>
+    <t>{'P280', 'P220', 'P221', 'P501', 'P370+P378', 'P210'}</t>
+  </si>
+  <si>
+    <t>{'P501', 'P301+P310', 'P321', 'P270', 'P405', 'P264', 'P330'}</t>
+  </si>
+  <si>
+    <t>{'P264', 'P330', 'P270', 'P501', 'P301+P312'}</t>
+  </si>
+  <si>
+    <t>{'P280', 'P501', 'P363', 'P302+P352', 'P312', 'P322', 'P405', 'P361'}</t>
+  </si>
+  <si>
+    <t>{'P280', 'P501', 'P363', 'P302+P352', 'P312', 'P322'}</t>
+  </si>
+  <si>
+    <t>{'P280', 'P305+P351+P338', 'P304+P340', 'P501', 'P310', 'P363', 'P301+P330+P331', 'P303+P361+P353', 'P321', 'P405', 'P264', 'P260'}</t>
+  </si>
+  <si>
+    <t>{'P280', 'P362', 'P321', 'P302+P352', 'P264', 'P332+P313'}</t>
+  </si>
+  <si>
+    <t>{'P280', 'P272', 'P261', 'P333+P313', 'P501', 'P363', 'P321', 'P302+P352'}</t>
   </si>
   <si>
     <t>{'P280', 'P305+P351+P338', 'P310'}</t>
   </si>
   <si>
-    <t>{'P264', 'P280', 'P305+P351+P338', 'P337+P313'}</t>
-  </si>
-  <si>
-    <t>{'P304+P340', 'P261', 'P405', 'P501', 'P312', 'P403+P233', 'P271'}</t>
-  </si>
-  <si>
-    <t>{'P281', 'P202', 'P308+P313', 'P201', 'P501', 'P405'}</t>
-  </si>
-  <si>
-    <t>{'P264', 'P270', 'P260', 'P501', 'P314'}</t>
-  </si>
-  <si>
-    <t>{'P314', 'P260', 'P501'}</t>
-  </si>
-  <si>
-    <t>{'P273', 'P391', 'P501'}</t>
-  </si>
-  <si>
-    <t>{'P273', 'P501'}</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>{'P264', 'P337+P313', 'P305+P351+P338', 'P280'}</t>
+  </si>
+  <si>
+    <t>{'P403+P233', 'P304+P340', 'P261', 'P271', 'P501', 'P312', 'P405'}</t>
+  </si>
+  <si>
+    <t>{'P308+P313', 'P501', 'P281', 'P202', 'P201', 'P405'}</t>
+  </si>
+  <si>
+    <t>{'P264', 'P260', 'P270', 'P501', 'P314'}</t>
+  </si>
+  <si>
+    <t>{'P260', 'P501', 'P314'}</t>
+  </si>
+  <si>
+    <t>{'P501', 'P391', 'P273'}</t>
+  </si>
+  <si>
+    <t>{'P501', 'P273'}</t>
   </si>
   <si>
     <t>H225</t>
@@ -315,13 +1180,13 @@
     <t>['Dispose of contents/container to ...']</t>
   </si>
   <si>
-    <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Ground/bond container and receiving equipment.', 'Keep container tightly closed.', 'Use only non-sparking tools.', 'Keep away from heat/sparks/open flames/hot surfaces. No smoking.', 'Use explosion-proof electrical/ventilating/lighting/.../equipment.', 'Take precautionary measures against static discharge.']</t>
-  </si>
-  <si>
-    <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Handle under inert gas. Protect from moisture.', 'Keep away from any possible contact with water, because of violent reaction and possible flash fire.']</t>
-  </si>
-  <si>
-    <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Keep/Store away from clothing/.../combustible materials.', 'Keep away from heat/sparks/open flames/hot surfaces. No smoking.', 'Take any precaution to avoid mixing with combustibles/...']</t>
+    <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Ground/bond container and receiving equipment.', 'Keep container tightly closed.', 'Use explosion-proof electrical/ventilating/lighting/.../equipment.', 'Keep away from heat/sparks/open flames/hot surfaces. No smoking.', 'Take precautionary measures against static discharge.', 'Use only non-sparking tools.']</t>
+  </si>
+  <si>
+    <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Keep away from any possible contact with water, because of violent reaction and possible flash fire.', 'Handle under inert gas. Protect from moisture.']</t>
+  </si>
+  <si>
+    <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Keep/Store away from clothing/.../combustible materials.', 'Take any precaution to avoid mixing with combustibles/...', 'Keep away from heat/sparks/open flames/hot surfaces. No smoking.']</t>
   </si>
   <si>
     <t>['Do not eat, drink or smoke when using this product.', 'Wash skin thoroughly after handling.']</t>
@@ -339,7 +1204,7 @@
     <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Wash skin thoroughly after handling.']</t>
   </si>
   <si>
-    <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Avoid breathing dust/fume/gas/mist/vapors/spray.', 'Contaminated work clothing should not be allowed out of the workplace.']</t>
+    <t>['Wear protective gloves/protective clothing/eye protection/face protection.', 'Contaminated work clothing should not be allowed out of the workplace.', 'Avoid breathing dust/fume/gas/mist/vapors/spray.']</t>
   </si>
   <si>
     <t>['Wash skin thoroughly after handling.', 'Wear protective gloves/protective clothing/eye protection/face protection.']</t>
@@ -351,7 +1216,7 @@
     <t>['Use personal protective equipment as required.', 'Do not handle until all safety precautions have been read and understood.', 'Obtain special instructions before use.']</t>
   </si>
   <si>
-    <t>['Wash skin thoroughly after handling.', 'Do not eat, drink or smoke when using this product.', 'Do not breathe dust/fume/gas/mist/vapors/spray.']</t>
+    <t>['Wash skin thoroughly after handling.', 'Do not breathe dust/fume/gas/mist/vapors/spray.', 'Do not eat, drink or smoke when using this product.']</t>
   </si>
   <si>
     <t>['Do not breathe dust/fume/gas/mist/vapors/spray.']</t>
@@ -363,37 +1228,37 @@
     <t>['In case of fire: Use ... for extinction.', 'IF ON SKIN (or hair): Remove/Take off Immediately all contaminated clothing. Rinse SKIN with water/shower.']</t>
   </si>
   <si>
-    <t>['In case of fire: Use ... for extinction.', 'Brush off loose particles from skin. Immerse in cool water/wrap in wet bandages.']</t>
+    <t>['Brush off loose particles from skin. Immerse in cool water/wrap in wet bandages.', 'In case of fire: Use ... for extinction.']</t>
   </si>
   <si>
     <t>['In case of fire: Use ... for extinction.']</t>
   </si>
   <si>
-    <t>['Rinse mouth.', 'IF SWALLOWED: Immediately call a POISON CENTER or doctor/physician.', 'Specific treatment (see ... on this label).']</t>
+    <t>['IF SWALLOWED: Immediately call a POISON CENTER or doctor/physician.', 'Specific treatment (see ... on this label).', 'Rinse mouth.']</t>
   </si>
   <si>
     <t>['Rinse mouth.', 'IF SWALLOWED: call a POISON CENTER or doctor/physician IF you feel unwell.']</t>
   </si>
   <si>
-    <t>['IF ON SKIN: wash with plenty of soap and water.', 'Call a POISON CENTER or doctor/physician if you feel unwell.', 'Remove/Take off immediately all contaminated clothing.', 'Wash contaminated clothing before reuse.', 'Specific measures (see ...on this label).']</t>
-  </si>
-  <si>
-    <t>['IF ON SKIN: wash with plenty of soap and water.', 'Call a POISON CENTER or doctor/physician if you feel unwell.', 'Wash contaminated clothing before reuse.', 'Specific measures (see ...on this label).']</t>
-  </si>
-  <si>
-    <t>['IF SWALLOWED: Rinse mouth. Do NOT induce vomiting.', 'IF INHALED: Remove victim to fresh air and Keep at rest in a position comfortable for breathing.', 'IF ON SKIN (or hair): Remove/Take off Immediately all contaminated clothing. Rinse SKIN with water/shower.', 'Specific treatment (see ... on this label).', 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'Wash contaminated clothing before reuse.', 'Immediately call a POISON CENTER or doctor/physician.']</t>
-  </si>
-  <si>
-    <t>['IF SKIN irritation occurs: Get medical advice/attention.', 'IF ON SKIN: wash with plenty of soap and water.', 'Specific treatment (see ... on this label).', 'Take off contaminated clothing and wash before reuse.']</t>
-  </si>
-  <si>
-    <t>['IF SKIN irritation or rash occurs: Get medical advice/attention.', 'IF ON SKIN: wash with plenty of soap and water.', 'Specific treatment (see ... on this label).', 'Wash contaminated clothing before reuse.']</t>
+    <t>['Wash contaminated clothing before reuse.', 'IF ON SKIN: wash with plenty of soap and water.', 'Call a POISON CENTER or doctor/physician if you feel unwell.', 'Specific measures (see ...on this label).', 'Remove/Take off immediately all contaminated clothing.']</t>
+  </si>
+  <si>
+    <t>['Wash contaminated clothing before reuse.', 'IF ON SKIN: wash with plenty of soap and water.', 'Call a POISON CENTER or doctor/physician if you feel unwell.', 'Specific measures (see ...on this label).']</t>
+  </si>
+  <si>
+    <t>['IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'IF INHALED: Remove victim to fresh air and Keep at rest in a position comfortable for breathing.', 'Immediately call a POISON CENTER or doctor/physician.', 'Wash contaminated clothing before reuse.', 'IF SWALLOWED: Rinse mouth. Do NOT induce vomiting.', 'IF ON SKIN (or hair): Remove/Take off Immediately all contaminated clothing. Rinse SKIN with water/shower.', 'Specific treatment (see ... on this label).']</t>
+  </si>
+  <si>
+    <t>['Take off contaminated clothing and wash before reuse.', 'Specific treatment (see ... on this label).', 'IF ON SKIN: wash with plenty of soap and water.', 'IF SKIN irritation occurs: Get medical advice/attention.']</t>
+  </si>
+  <si>
+    <t>['IF SKIN irritation or rash occurs: Get medical advice/attention.', 'Wash contaminated clothing before reuse.', 'Specific treatment (see ... on this label).', 'IF ON SKIN: wash with plenty of soap and water.']</t>
   </si>
   <si>
     <t>['IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'Immediately call a POISON CENTER or doctor/physician.']</t>
   </si>
   <si>
-    <t>['IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.', 'IF eye irritation persists: Get medical advice/attention.']</t>
+    <t>['IF eye irritation persists: Get medical advice/attention.', 'IF IN EYES: Rinse cautiously with water for several minutes. Remove contact lenses, if present and easy to do. Continue rinsing.']</t>
   </si>
   <si>
     <t>['IF INHALED: Remove victim to fresh air and Keep at rest in a position comfortable for breathing.', 'Call a POISON CENTER or doctor/physician if you feel unwell.']</t>
@@ -474,12 +1339,12 @@
     <t>Harmful to aquatic life with long lasting effects.</t>
   </si>
   <si>
+    <t>May form explosive peroxides.</t>
+  </si>
+  <si>
     <t>Reacts violently with water.</t>
   </si>
   <si>
-    <t>May form explosive peroxides.</t>
-  </si>
-  <si>
     <t>['Store in a well-ventilated place. Keep cool.']</t>
   </si>
   <si>
@@ -489,7 +1354,7 @@
     <t>['Store locked up.']</t>
   </si>
   <si>
-    <t>['Store locked up.', 'Store in a well-ventilated place. Keep container tightly closed.']</t>
+    <t>['Store in a well-ventilated place. Keep container tightly closed.', 'Store locked up.']</t>
   </si>
   <si>
     <t>P201</t>
@@ -757,7 +1622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +1634,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -809,11 +1682,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,167 +1982,1356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N3" t="s">
+        <v>244</v>
+      </c>
+      <c r="O3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N5" t="s">
+        <v>246</v>
+      </c>
+      <c r="O5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>228</v>
+      </c>
+      <c r="N6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>230</v>
+      </c>
+      <c r="N9" t="s">
+        <v>250</v>
+      </c>
+      <c r="O9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
+        <v>231</v>
+      </c>
+      <c r="N10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" t="s">
+        <v>232</v>
+      </c>
+      <c r="N11" t="s">
+        <v>252</v>
+      </c>
+      <c r="O11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" t="s">
+        <v>223</v>
+      </c>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" t="s">
+        <v>254</v>
+      </c>
+      <c r="O13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" t="s">
+        <v>255</v>
+      </c>
+      <c r="O14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" t="s">
+        <v>256</v>
+      </c>
+      <c r="O15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" t="s">
+        <v>235</v>
+      </c>
+      <c r="N16" t="s">
+        <v>257</v>
+      </c>
+      <c r="O16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" t="s">
+        <v>258</v>
+      </c>
+      <c r="O17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" t="s">
+        <v>237</v>
+      </c>
+      <c r="N18" t="s">
+        <v>259</v>
+      </c>
+      <c r="O18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" t="s">
+        <v>238</v>
+      </c>
+      <c r="N19" t="s">
+        <v>260</v>
+      </c>
+      <c r="O19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" t="s">
+        <v>239</v>
+      </c>
+      <c r="N20" t="s">
+        <v>261</v>
+      </c>
+      <c r="O20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" t="s">
+        <v>262</v>
+      </c>
+      <c r="O21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" t="s">
+        <v>240</v>
+      </c>
+      <c r="N22" t="s">
+        <v>263</v>
+      </c>
+      <c r="O22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" t="s">
+        <v>241</v>
+      </c>
+      <c r="N23" t="s">
+        <v>264</v>
+      </c>
+      <c r="O23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" t="s">
+        <v>242</v>
+      </c>
+      <c r="N24" t="s">
+        <v>265</v>
+      </c>
+      <c r="O24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="K4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="K5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="K6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="K7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="K8" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="K9" r:id="rId16"/>
+    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="K10" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId19"/>
+    <hyperlink ref="K11" r:id="rId20"/>
+    <hyperlink ref="I12" r:id="rId21"/>
+    <hyperlink ref="K12" r:id="rId22"/>
+    <hyperlink ref="I13" r:id="rId23"/>
+    <hyperlink ref="K13" r:id="rId24"/>
+    <hyperlink ref="I14" r:id="rId25"/>
+    <hyperlink ref="K14" r:id="rId26"/>
+    <hyperlink ref="I15" r:id="rId27"/>
+    <hyperlink ref="K15" r:id="rId28"/>
+    <hyperlink ref="I16" r:id="rId29"/>
+    <hyperlink ref="K16" r:id="rId30"/>
+    <hyperlink ref="I17" r:id="rId31"/>
+    <hyperlink ref="K17" r:id="rId32"/>
+    <hyperlink ref="I18" r:id="rId33"/>
+    <hyperlink ref="K18" r:id="rId34"/>
+    <hyperlink ref="I19" r:id="rId35"/>
+    <hyperlink ref="K19" r:id="rId36"/>
+    <hyperlink ref="I20" r:id="rId37"/>
+    <hyperlink ref="K20" r:id="rId38"/>
+    <hyperlink ref="I21" r:id="rId39"/>
+    <hyperlink ref="K21" r:id="rId40"/>
+    <hyperlink ref="I22" r:id="rId41"/>
+    <hyperlink ref="K22" r:id="rId42"/>
+    <hyperlink ref="I23" r:id="rId43"/>
+    <hyperlink ref="K23" r:id="rId44"/>
+    <hyperlink ref="I24" r:id="rId45"/>
+    <hyperlink ref="K24" r:id="rId46"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>294</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>418</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>388</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>345</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>389</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>404</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="J5" t="s">
         <v>72</v>
@@ -1276,63 +3339,63 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>390</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>422</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>391</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>406</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="J7" t="s">
         <v>72</v>
@@ -1340,63 +3403,63 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>392</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>407</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>392</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>408</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>425</v>
       </c>
       <c r="J9" t="s">
         <v>72</v>
@@ -1404,48 +3467,48 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>409</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>426</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1454,13 +3517,13 @@
         <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>410</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>427</v>
       </c>
       <c r="J11" t="s">
         <v>72</v>
@@ -1468,31 +3531,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>352</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>395</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>411</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>428</v>
       </c>
       <c r="J12" t="s">
         <v>72</v>
@@ -1500,16 +3563,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1518,13 +3581,13 @@
         <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>392</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>429</v>
       </c>
       <c r="J13" t="s">
         <v>72</v>
@@ -1532,16 +3595,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -1550,13 +3613,13 @@
         <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>413</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>430</v>
       </c>
       <c r="J14" t="s">
         <v>72</v>
@@ -1564,223 +3627,223 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>355</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>374</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>397</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>414</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>336</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>376</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>433</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>434</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>435</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>339</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>379</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="H20" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>436</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>340</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>437</v>
       </c>
       <c r="J21" t="s">
         <v>72</v>
@@ -1788,31 +3851,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>358</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>437</v>
       </c>
       <c r="J22" t="s">
         <v>72</v>
@@ -1820,31 +3883,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>359</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>382</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>401</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>417</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>438</v>
       </c>
       <c r="J23" t="s">
         <v>72</v>
@@ -1852,31 +3915,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>360</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>401</v>
       </c>
       <c r="H24" t="s">
         <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>439</v>
       </c>
       <c r="J24" t="s">
         <v>72</v>
@@ -1884,16 +3947,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1908,7 +3971,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>440</v>
       </c>
       <c r="J25" t="s">
         <v>72</v>
@@ -1916,16 +3979,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>385</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1940,7 +4003,7 @@
         <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>441</v>
       </c>
       <c r="J26" t="s">
         <v>72</v>
@@ -1951,7 +4014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -1961,359 +4024,359 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>486</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>448</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>468</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>449</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>469</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>450</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>470</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>451</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>487</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>472</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>488</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>453</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>473</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>454</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>474</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>489</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>455</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>475</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>456</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>476</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>491</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>457</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>477</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>492</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>458</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>478</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>492</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>459</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>479</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>493</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>460</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>480</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>486</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>461</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>481</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>462</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>482</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>463</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>483</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
-        <v>215</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>464</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>484</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>465</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>485</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +4384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2331,184 +4394,184 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>504</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>505</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>517</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>506</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>518</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>507</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>519</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>508</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>520</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>509</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>521</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>510</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>518</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>511</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>521</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>512</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>520</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>513</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>522</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>514</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>523</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>515</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>524</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>516</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>520</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
